--- a/zibs2020/mappable/Nl.zorg.Problem-v4.4(2020EN).xlsx
+++ b/zibs2020/mappable/Nl.zorg.Problem-v4.4(2020EN).xlsx
@@ -436,47 +436,47 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Name</t>
+          <t>name</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Path</t>
+          <t>path</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Alias</t>
+          <t>alias</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Type</t>
+          <t>type</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Card.</t>
+          <t>card.</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Stereotype</t>
+          <t>stereotype</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Id</t>
+          <t>id</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Definition</t>
+          <t>definition</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>DefinitionCode</t>
+          <t>definitioncode</t>
         </is>
       </c>
     </row>
